--- a/biology/Histoire de la zoologie et de la botanique/John_Arthur_Thomson/John_Arthur_Thomson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Arthur_Thomson/John_Arthur_Thomson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir John Arthur Thomson est un zoologiste britannique, né en 1861 à Saltoun, East Lothian près d’Édimbourg et mort en 1933 à Limpsfield.
 Ses centres d’intérêts sont variés. En dehors de la zoologie, il étudie les végétaux, la chimie et la géologie. Il se spécialise sur les Alcyonacea, les anémones et les coraux.
@@ -513,10 +525,12 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>The System of Animate Nature, vol. 1 et vol. 2 (1914-1916)
-The Outline of Science[1] (4 vol., 1922).
+The Outline of Science (4 vol., 1922).
 What Is Man? (1923).
 Science and Religion (1925).
 Modern Science (1929).</t>
